--- a/2020项目对接/01-01珊瑚配置产品/第四批-珊瑚测试卡(6月).xlsx
+++ b/2020项目对接/01-01珊瑚配置产品/第四批-珊瑚测试卡(6月).xlsx
@@ -36,131 +36,133 @@
     <t>校验码</t>
   </si>
   <si>
+    <t>992112010001</t>
+  </si>
+  <si>
+    <t>7290</t>
+  </si>
+  <si>
+    <t>992112010002</t>
+  </si>
+  <si>
+    <t>0052</t>
+  </si>
+  <si>
+    <t>992112010003</t>
+  </si>
+  <si>
+    <t>8108</t>
+  </si>
+  <si>
+    <t>992112010004</t>
+  </si>
+  <si>
+    <t>8466</t>
+  </si>
+  <si>
+    <t>992112010005</t>
+  </si>
+  <si>
+    <t>3810</t>
+  </si>
+  <si>
+    <t>992112010006</t>
+  </si>
+  <si>
+    <t>9184</t>
+  </si>
+  <si>
+    <t>992112010007</t>
+  </si>
+  <si>
+    <t>1795</t>
+  </si>
+  <si>
+    <t>992112010008</t>
+  </si>
+  <si>
+    <t>9891</t>
+  </si>
+  <si>
+    <t>992112010009</t>
+  </si>
+  <si>
+    <t>7146</t>
+  </si>
+  <si>
+    <t>992112010010</t>
+  </si>
+  <si>
+    <t>1510</t>
+  </si>
+  <si>
+    <t>992112010011</t>
+  </si>
+  <si>
+    <t>9951</t>
+  </si>
+  <si>
+    <t>992112010012</t>
+  </si>
+  <si>
+    <t>8772</t>
+  </si>
+  <si>
+    <t>992112010013</t>
+  </si>
+  <si>
+    <t>6560</t>
+  </si>
+  <si>
+    <t>992112010014</t>
+  </si>
+  <si>
+    <t>2054</t>
+  </si>
+  <si>
+    <t>992112010015</t>
+  </si>
+  <si>
+    <t>9941</t>
+  </si>
+  <si>
+    <t>992112010016</t>
+  </si>
+  <si>
+    <t>9642</t>
+  </si>
+  <si>
+    <t>992112010017</t>
+  </si>
+  <si>
+    <t>0106</t>
+  </si>
+  <si>
+    <t>992112010018</t>
+  </si>
+  <si>
+    <t>8629</t>
+  </si>
+  <si>
+    <t>992112010019</t>
+  </si>
+  <si>
+    <t>3701</t>
+  </si>
+  <si>
     <t>992112010000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>8958</t>
-  </si>
-  <si>
-    <t>992112010001</t>
-  </si>
-  <si>
-    <t>7290</t>
-  </si>
-  <si>
-    <t>992112010002</t>
-  </si>
-  <si>
-    <t>0052</t>
-  </si>
-  <si>
-    <t>992112010003</t>
-  </si>
-  <si>
-    <t>8108</t>
-  </si>
-  <si>
-    <t>992112010004</t>
-  </si>
-  <si>
-    <t>8466</t>
-  </si>
-  <si>
-    <t>992112010005</t>
-  </si>
-  <si>
-    <t>3810</t>
-  </si>
-  <si>
-    <t>992112010006</t>
-  </si>
-  <si>
-    <t>9184</t>
-  </si>
-  <si>
-    <t>992112010007</t>
-  </si>
-  <si>
-    <t>1795</t>
-  </si>
-  <si>
-    <t>992112010008</t>
-  </si>
-  <si>
-    <t>9891</t>
-  </si>
-  <si>
-    <t>992112010009</t>
-  </si>
-  <si>
-    <t>7146</t>
-  </si>
-  <si>
-    <t>992112010010</t>
-  </si>
-  <si>
-    <t>1510</t>
-  </si>
-  <si>
-    <t>992112010011</t>
-  </si>
-  <si>
-    <t>9951</t>
-  </si>
-  <si>
-    <t>992112010012</t>
-  </si>
-  <si>
-    <t>8772</t>
-  </si>
-  <si>
-    <t>992112010013</t>
-  </si>
-  <si>
-    <t>6560</t>
-  </si>
-  <si>
-    <t>992112010014</t>
-  </si>
-  <si>
-    <t>2054</t>
-  </si>
-  <si>
-    <t>992112010015</t>
-  </si>
-  <si>
-    <t>9941</t>
-  </si>
-  <si>
-    <t>992112010016</t>
-  </si>
-  <si>
-    <t>9642</t>
-  </si>
-  <si>
-    <t>992112010017</t>
-  </si>
-  <si>
-    <t>0106</t>
-  </si>
-  <si>
-    <t>992112010018</t>
-  </si>
-  <si>
-    <t>8629</t>
-  </si>
-  <si>
-    <t>992112010019</t>
-  </si>
-  <si>
-    <t>3701</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -182,6 +184,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -230,7 +247,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -245,6 +262,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,7 +555,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -562,14 +588,14 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
+      <c r="B3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -577,10 +603,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -588,10 +614,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -599,10 +625,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -610,10 +636,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -621,10 +647,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -632,10 +658,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -643,10 +669,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -654,10 +680,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -665,10 +691,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -676,10 +702,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -687,10 +713,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -698,10 +724,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -709,10 +735,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -720,10 +746,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -731,10 +757,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -742,10 +768,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -753,10 +779,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -764,10 +790,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -775,10 +801,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
